--- a/Docs/事件資料格式(EXL)_0829 _新格式 2.xlsx
+++ b/Docs/事件資料格式(EXL)_0829 _新格式 2.xlsx
@@ -828,7 +828,13 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,13 +852,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,7 +1155,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1183,36 +1183,36 @@
       <c r="A2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="21" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="16" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="14" t="s">
@@ -1224,54 +1224,54 @@
       <c r="C3" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="17" t="s">
+      <c r="K3" s="22"/>
+      <c r="L3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20" t="s">
+      <c r="Q3" s="21"/>
+      <c r="R3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="17" t="s">
+      <c r="S3" s="22"/>
+      <c r="T3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="18" t="s">
+      <c r="U3" s="19"/>
+      <c r="V3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="18"/>
-      <c r="X3" s="19" t="s">
+      <c r="W3" s="20"/>
+      <c r="X3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="20" t="s">
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AA3" s="20"/>
+      <c r="AA3" s="22"/>
       <c r="AB3" s="3" t="s">
         <v>143</v>
       </c>
@@ -1673,7 +1673,9 @@
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="L10" s="2"/>
@@ -1690,11 +1692,6 @@
       <c r="P11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="15" spans="1:28">
       <c r="A15" s="3" t="s">
         <v>148</v>
@@ -1707,21 +1704,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
